--- a/assets/datos.xlsx
+++ b/assets/datos.xlsx
@@ -20,18 +20,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="6">
   <si>
-    <t xml:space="preserve">a</t>
+    <t xml:space="preserve">semana</t>
   </si>
   <si>
-    <t xml:space="preserve">b</t>
+    <t xml:space="preserve">sexo</t>
   </si>
   <si>
     <t xml:space="preserve">c</t>
   </si>
   <si>
     <t xml:space="preserve">d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
   </si>
 </sst>
 </file>
@@ -46,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -127,16 +134,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G23" activeCellId="0" sqref="G23"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
@@ -156,8 +160,8 @@
       <c r="A2" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="0" t="n">
-        <v>3</v>
+      <c r="B2" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>5</v>
@@ -168,10 +172,10 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>7</v>
@@ -182,10 +186,10 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>9</v>
@@ -196,10 +200,10 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>11</v>
@@ -210,10 +214,10 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>13</v>
@@ -224,10 +228,10 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>15</v>
@@ -238,10 +242,10 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>17</v>
@@ -252,10 +256,10 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>2</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>19</v>
@@ -266,10 +270,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>11</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>21</v>
@@ -280,10 +284,10 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>23</v>
@@ -294,10 +298,10 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>25</v>
@@ -308,10 +312,10 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>14</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>27</v>
@@ -322,10 +326,10 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>15</v>
+        <v>2</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>29</v>
@@ -336,10 +340,10 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>16</v>
+        <v>2</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>31</v>
@@ -350,10 +354,10 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="B16" s="0" t="n">
-        <v>17</v>
+        <v>3</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>33</v>
@@ -364,10 +368,10 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>18</v>
+        <v>3</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>35</v>
@@ -378,10 +382,10 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>17</v>
-      </c>
-      <c r="B18" s="0" t="n">
-        <v>19</v>
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>37</v>
@@ -392,10 +396,10 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>18</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>4</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>39</v>
@@ -406,10 +410,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="B20" s="0" t="n">
-        <v>21</v>
+        <v>4</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>41</v>
@@ -420,10 +424,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="B21" s="0" t="n">
-        <v>22</v>
+        <v>4</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>43</v>
@@ -434,10 +438,10 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>21</v>
-      </c>
-      <c r="B22" s="0" t="n">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>45</v>
@@ -448,10 +452,10 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>22</v>
-      </c>
-      <c r="B23" s="0" t="n">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>5</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>47</v>
@@ -462,15 +466,43 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="B24" s="0" t="n">
-        <v>25</v>
+        <v>4</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>4</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>49</v>
       </c>
       <c r="D24" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="D26" s="0" t="n">
         <v>28</v>
       </c>
     </row>
